--- a/Test Scenarios/Open-Cart Test Scenarios.xlsx
+++ b/Test Scenarios/Open-Cart Test Scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Approval Date</t>
   </si>
   <si>
-    <t>16/02/2024</t>
-  </si>
-  <si>
     <t>Test Scenarios ID</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Validate the complete Application functionality for different "Currency"</t>
+  </si>
+  <si>
+    <t>20/12/2022</t>
   </si>
 </sst>
 </file>
@@ -314,12 +314,13 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -327,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,10 +386,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +691,7 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -692,7 +699,7 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -700,7 +707,7 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -708,7 +715,7 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -716,493 +723,493 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
+      <c r="D5" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
